--- a/sources/case/MaterialgetRequest.xlsx
+++ b/sources/case/MaterialgetRequest.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandanzhan/Workspace/QiFeiApi/sources/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -103,13 +103,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -137,13 +144,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,12 +425,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -440,7 +458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -461,7 +479,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -470,16 +490,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -508,6 +530,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -517,18 +540,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -569,6 +594,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>